--- a/Automation with Python (Working with Spreadsheets)/SampleData.xlsx
+++ b/Automation with Python (Working with Spreadsheets)/SampleData.xlsx
@@ -186,7 +186,7 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -199,20 +199,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -225,6 +219,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -257,11 +257,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -274,59 +277,62 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
@@ -657,141 +663,141 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="2.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="31.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="26" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="2.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="31.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="7.5">
-      <c r="A1" s="1"/>
+      <c r="A1" s="18"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="9">
-      <c r="A4" s="1"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="9">
-      <c r="A8" s="1"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="18" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="9">
-      <c r="A13" s="1"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="23">
-      <c r="A16" s="24"/>
-      <c r="B16" s="22" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="24">
+      <c r="A16" s="25"/>
+      <c r="B16" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="22" t="s">
         <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
@@ -813,1024 +819,1024 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="7.719285714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="15" width="7.2907142857142855" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="16" width="10.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="17" width="10.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="11">
         <v>44202</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="12">
         <v>95</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>1.99</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="13">
         <v>189.05</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="10">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="11">
         <v>44219</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <v>50</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>19.99</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="13">
         <v>999.4999999999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="10">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="11">
         <v>44236</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="12">
         <v>36</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>4.99</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="13">
         <v>179.64000000000001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="10">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="11">
         <v>44253</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="12">
         <v>27</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>19.99</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="13">
         <v>539.7299999999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="10">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="11">
         <v>44270</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
         <v>56</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>2.99</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="13">
         <v>167.44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="10">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="11">
         <v>44287</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="12">
         <v>60</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>4.99</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="13">
         <v>299.40000000000003</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="10">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="11">
         <v>44304</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="12">
         <v>75</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>1.99</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="13">
         <v>149.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="10">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="11">
         <v>44321</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="12">
         <v>90</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>4.99</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="13">
         <v>449.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="11">
         <v>44338</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="12">
         <v>32</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>1.99</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="13">
         <v>63.68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="10">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="11">
         <v>44355</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="12">
         <v>60</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <v>8.99</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="13">
         <v>539.4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="10">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="11">
         <v>44372</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="12">
         <v>90</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>4.99</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="13">
         <v>449.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="10">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="11">
         <v>44389</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="12">
         <v>29</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <v>1.99</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="13">
         <v>57.71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="10">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="11">
         <v>44406</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="12">
         <v>81</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>19.99</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="13">
         <v>1619.1899999999998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="10">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="11">
         <v>44423</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="12">
         <v>35</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <v>4.99</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="13">
         <v>174.65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="10">
+      <c r="A16" s="11">
         <v>44440</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="12">
         <v>2</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="10">
         <v>125</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="13">
         <v>250</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="10">
+      <c r="A17" s="11">
         <v>44457</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="12">
         <v>16</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <v>15.99</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="13">
         <v>255.84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="10">
+      <c r="A18" s="11">
         <v>44474</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="12">
         <v>28</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <v>8.99</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="13">
         <v>251.72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="10">
+      <c r="A19" s="11">
         <v>44491</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="12">
         <v>64</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>8.99</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="13">
         <v>575.36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="10">
+      <c r="A20" s="11">
         <v>44508</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="12">
         <v>15</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <v>19.99</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="13">
         <v>299.84999999999997</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="10">
+      <c r="A21" s="11">
         <v>44525</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="12">
         <v>96</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="10">
         <v>4.99</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="13">
         <v>479.04</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="10">
+      <c r="A22" s="11">
         <v>44542</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="12">
         <v>67</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="10">
         <v>1.29</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="13">
         <v>86.43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="10">
+      <c r="A23" s="11">
         <v>44559</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="12">
         <v>74</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="10">
         <v>15.99</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="13">
         <v>1183.26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="10">
+      <c r="A24" s="11">
         <v>44576</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="12">
         <v>46</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="10">
         <v>8.99</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="13">
         <v>413.54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="10">
+      <c r="A25" s="11">
         <v>44593</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="12">
         <v>87</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <v>15</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="13">
         <v>1305</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="10">
+      <c r="A26" s="11">
         <v>44610</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="12">
         <v>4</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="10">
         <v>4.99</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="13">
         <v>19.96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="10">
+      <c r="A27" s="11">
         <v>44627</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="12">
         <v>7</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="10">
         <v>19.99</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="13">
         <v>139.92999999999998</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="10">
+      <c r="A28" s="11">
         <v>44644</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="12">
         <v>50</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="10">
         <v>4.99</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="13">
         <v>249.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="10">
+      <c r="A29" s="11">
         <v>44661</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="12">
         <v>66</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="10">
         <v>1.99</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="13">
         <v>131.34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="10">
+      <c r="A30" s="11">
         <v>44678</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="12">
         <v>96</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="10">
         <v>4.99</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="13">
         <v>479.04</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="10">
+      <c r="A31" s="11">
         <v>44695</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="12">
         <v>53</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="10">
         <v>1.29</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="13">
         <v>68.37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="10">
+      <c r="A32" s="11">
         <v>44712</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="12">
         <v>80</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="10">
         <v>8.99</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="13">
         <v>719.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="10">
+      <c r="A33" s="11">
         <v>44729</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="12">
         <v>5</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="10">
         <v>125</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="13">
         <v>625</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="10">
+      <c r="A34" s="11">
         <v>44746</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="12">
         <v>62</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="10">
         <v>4.99</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="13">
         <v>309.38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="10">
+      <c r="A35" s="11">
         <v>44763</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="12">
         <v>55</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="10">
         <v>12.49</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="13">
         <v>686.95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="10">
+      <c r="A36" s="11">
         <v>44780</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="12">
         <v>42</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="10">
         <v>23.95</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="13">
         <v>1005.9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="10">
+      <c r="A37" s="11">
         <v>44797</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="12">
         <v>3</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="10">
         <v>275</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="13">
         <v>825</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="10">
+      <c r="A38" s="11">
         <v>44814</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="12">
         <v>7</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="10">
         <v>1.29</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="13">
         <v>9.030000000000001</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="10">
+      <c r="A39" s="11">
         <v>44831</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="12">
         <v>76</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="10">
         <v>1.99</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="13">
         <v>151.24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="10">
+      <c r="A40" s="11">
         <v>44848</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="12">
         <v>57</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="10">
         <v>19.99</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="13">
         <v>1139.4299999999998</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="10">
+      <c r="A41" s="11">
         <v>44865</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="12">
         <v>14</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="10">
         <v>1.29</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="13">
         <v>18.060000000000002</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="10">
+      <c r="A42" s="11">
         <v>44882</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="7" t="s">
+      <c r="B42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="12">
         <v>11</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="10">
         <v>4.99</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="13">
         <v>54.89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="10">
+      <c r="A43" s="11">
         <v>44899</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="12">
         <v>94</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="10">
         <v>19.99</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="13">
         <v>1879.06</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="10">
+      <c r="A44" s="11">
         <v>44916</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="B44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="12">
         <v>28</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="10">
         <v>4.99</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="13">
         <v>139.72</v>
       </c>
     </row>
@@ -1853,26 +1859,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="3.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="64.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="3.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="32.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="64.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1881,7 +1887,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1890,7 +1896,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1899,7 +1905,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1908,19 +1914,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">

--- a/Automation with Python (Working with Spreadsheets)/SampleData.xlsx
+++ b/Automation with Python (Working with Spreadsheets)/SampleData.xlsx
@@ -60,7 +60,7 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Rep</t>
+    <t>Buyer</t>
   </si>
   <si>
     <t>Item</t>
@@ -357,7 +357,7 @@
   <tableColumns count="7">
     <tableColumn name="OrderDate" id="1"/>
     <tableColumn name="Region" id="2"/>
-    <tableColumn name="Rep" id="3"/>
+    <tableColumn name="Buyer1" id="3"/>
     <tableColumn name="Item" id="4"/>
     <tableColumn name="Units" id="5"/>
     <tableColumn name="Unit Cost" id="6"/>

--- a/Automation with Python (Working with Spreadsheets)/SampleData.xlsx
+++ b/Automation with Python (Working with Spreadsheets)/SampleData.xlsx
@@ -182,6 +182,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -223,12 +229,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -257,45 +257,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -311,27 +311,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -663,143 +666,143 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="26" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="27" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="2.862142857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="31.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="7.5">
-      <c r="A1" s="18"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="18"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="18"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="9">
-      <c r="A4" s="18"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="7.5" customFormat="1" s="18">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="18">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="18">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="9" customFormat="1" s="18">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23" t="s">
         <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="9">
-      <c r="A8" s="18"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="9" customFormat="1" s="18">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="19" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="23" t="s">
         <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="9">
-      <c r="A13" s="18"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="9" customFormat="1" s="18">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="21" t="s">
         <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="18"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="24">
-      <c r="A16" s="25"/>
-      <c r="B16" s="23" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="18">
+      <c r="A16" s="26"/>
+      <c r="B16" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="18"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="18"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="18"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="18"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="18"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="18">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="18">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="18">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="18">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1173,7 +1176,7 @@
         <v>174.65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="11">
         <v>44440</v>
       </c>
